--- a/biology/Zoologie/Conus_generalis/Conus_generalis.xlsx
+++ b/biology/Zoologie/Conus_generalis/Conus_generalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Conus generalis est un mollusque appartenant à la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été décrit par  Linné en 1767.
 Coquille épaisse et lourde avec une spire étagée. L'apex est pointu. Le dernier tour est grand à côtés presque droits et légèrement arrondi à l'épaulement. Couleur et dessin variables mais généralement brun clair ou foncé avec 3 bandes blanches.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien et Pacifique occidental.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sables intertidaux.
 </t>
@@ -607,19 +625,58 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymie
-Conus krabiensis, da Motta (1982)[1]
-Conus maldivus, Hwass in Bruguière (1792)[1]
-Conus planaxis, Deshayes (1863)[1]
-Conus spiculum, Reeve (1849)[1]
-Conus spirogloxus, Deshayes (1863)[1]
-Cucullus dux, Röding (1798)[1]
-Cucullus filosus, Röding (1798)[1]
-Cucullus locumtenens, Röding (1798)[1]
-Variétés
-Conus generalis var. regenfussi, Dautzenberg (1937)[1]
-Conus generalis var. pallida, Dautzenberg (1937)[1]
-Conus generalis var. subunicolor, Dautzenberg (1937)[1]</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus krabiensis, da Motta (1982)
+Conus maldivus, Hwass in Bruguière (1792)
+Conus planaxis, Deshayes (1863)
+Conus spiculum, Reeve (1849)
+Conus spirogloxus, Deshayes (1863)
+Cucullus dux, Röding (1798)
+Cucullus filosus, Röding (1798)
+Cucullus locumtenens, Röding (1798)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_generalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_generalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Synonymie et variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus generalis var. regenfussi, Dautzenberg (1937)
+Conus generalis var. pallida, Dautzenberg (1937)
+Conus generalis var. subunicolor, Dautzenberg (1937)</t>
         </is>
       </c>
     </row>
